--- a/RBKVersion/version.xlsx
+++ b/RBKVersion/version.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\python\productionTools\RBKVersion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839C367-6543-47F8-81D9-4E8C7AA54695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="AQGuvRAEimodsofdCjE9y5mO95SQQB5rJFoQRvUEw+fCk6GoJMdd1UNxBMhKjUGMIj4LKdgv8+r8qjGSer5vNg==" workbookSaltValue="P+G1pgYqJf8r99XgCn025Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B296570-BC1A-471E-B7B3-1A9F2B08E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3vxlE2dk8SypmLD9zHx+cTd/c80h0jk3xeHoiKzohKmciosNDK4fNNDZkDJXnXMguOPuMihDC8SIZyzbLhjOfQ==" workbookSaltValue="skNE6BqwuThsxTage9Utfw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5430" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30690" yWindow="-435" windowWidth="32385" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,76 +26,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+  <si>
+    <t>SRC3000</t>
+  </si>
+  <si>
+    <t>SRC800</t>
+  </si>
+  <si>
+    <t>3.6.49</t>
+  </si>
+  <si>
+    <t>SRC-PATCH</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>0.9.11</t>
+  </si>
+  <si>
+    <t>底层固件</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.0.7.6</t>
+  </si>
+  <si>
+    <t>陀螺仪固件</t>
+  </si>
+  <si>
+    <t>f103-1.5.2</t>
+  </si>
+  <si>
+    <t>3.4.6.2105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m40-1.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRC2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robokit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>SRC880</t>
-  </si>
-  <si>
-    <t>SRC3000</t>
-  </si>
-  <si>
-    <t>SRC800</t>
-  </si>
-  <si>
-    <t>Robokit</t>
-  </si>
-  <si>
-    <t>3.4.6.2105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Robod</t>
-  </si>
-  <si>
-    <t>3.6.49</t>
-  </si>
-  <si>
-    <t>SRC-PATCH</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
-    <t>0.9.11</t>
-  </si>
-  <si>
-    <t>底层固件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.1.124</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0.0.7.6</t>
-  </si>
-  <si>
-    <t>陀螺仪固件</t>
-  </si>
-  <si>
-    <t>f103-1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f103-1.5.4</t>
-  </si>
-  <si>
-    <t>3.4.6.2105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRC2000(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m40-1.5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6.49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -489,107 +493,107 @@
     <row r="1" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/FHeTL2fN5SZHJtntC6DV64snJl15H9GyDMuncu/ImxBa+1t00ROe7/1OkBmmAhTA3Qf6tH9jdJE5WTyQdnJAg==" saltValue="L8/HBFY9A7KHksfMOj0rVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yF8VEvxEHFZ4QTt52RX4TIzM/oPQPZLz1WMVkQjIn/7kRGcneQ3SFRhkbmwl8QUA1YnW19ZGpPnyLd9QhCiOYw==" saltValue="iFc1Y//6ffyUmCx/8hTMpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="B2:E6" name="区域1"/>
+    <protectedRange sqref="B1:ZZ6" name="区域1"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
